--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/CodeSystem/cs-other</t>
+    <t>http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-other</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/CodeSystem/cs-other</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-other</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:22:19+00:00</t>
+    <t>2022-11-03T06:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-other.xlsx
+++ b/branches/master/CodeSystem-cs-other.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
